--- a/SCH-STH/Impact assessments/Burkina Faso/2024/bf_202403_sch_ia_3_resultat_selles.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2024/bf_202403_sch_ia_3_resultat_selles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\nov 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46619F3D-6705-4137-9DE9-14A378C6027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0119CEFB-ABC8-47C7-A230-9EBFF4D2374C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -543,12 +543,6 @@
     <t>Mogtedo</t>
   </si>
   <si>
-    <t>(BF - Novembre 2023) impact schisto - 3. Formulaire Resultats Selles V2.1</t>
-  </si>
-  <si>
-    <t>bf_202311_sch_impact_assessment_3_resultat_selles_v2_1</t>
-  </si>
-  <si>
     <t>Bourma</t>
   </si>
   <si>
@@ -568,18 +562,31 @@
   </si>
   <si>
     <t>Wada</t>
+  </si>
+  <si>
+    <t>bf_202403_sch_ia_3_resultat_selles</t>
+  </si>
+  <si>
+    <t>(BF - Mars 2024) impact schisto - 3. Formulaire Resultats Selles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,27 +729,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -752,20 +759,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1574,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD82"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2639,10 +2646,10 @@
         <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E73" t="s">
         <v>121</v>
@@ -2655,10 +2662,10 @@
         <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E74" t="s">
         <v>121</v>
@@ -2671,10 +2678,10 @@
         <v>100</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E75" t="s">
         <v>121</v>
@@ -2719,10 +2726,10 @@
         <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E78" t="s">
         <v>121</v>
@@ -2735,10 +2742,10 @@
         <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E79" t="s">
         <v>121</v>
@@ -2751,10 +2758,10 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E80" t="s">
         <v>121</v>
@@ -2765,10 +2772,10 @@
         <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E81" t="s">
         <v>121</v>
@@ -2855,7 +2862,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2880,11 +2887,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>174</v>
+      <c r="A2" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>105</v>
